--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="307">
   <si>
     <t>collectionNo</t>
   </si>
@@ -484,6 +484,9 @@
     <t>九紋竜エリザ</t>
   </si>
   <si>
+    <t>テノチティトラン</t>
+  </si>
+  <si>
     <t>瑪修·基列萊特</t>
   </si>
   <si>
@@ -797,6 +800,9 @@
   </si>
   <si>
     <t>多佈雷尼亞·尼基季奇</t>
+  </si>
+  <si>
+    <t>赫費斯提翁</t>
   </si>
   <si>
     <t>瑪修．基利艾拉特</t>
@@ -1286,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,10 +1332,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1346,10 +1352,10 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1366,10 +1372,10 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1386,10 +1392,10 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1406,10 +1412,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1426,10 +1432,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1446,10 +1452,10 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1466,10 +1472,10 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1486,10 +1492,10 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1506,10 +1512,10 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1526,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1546,10 +1552,10 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1566,10 +1572,10 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1586,10 +1592,10 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1606,10 +1612,10 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1626,10 +1632,10 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1646,10 +1652,10 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1666,10 +1672,10 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1686,10 +1692,10 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1726,10 +1732,10 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1746,10 +1752,10 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1766,10 +1772,10 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1786,10 +1792,10 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1806,10 +1812,10 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1826,10 +1832,10 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1846,10 +1852,10 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1866,10 +1872,10 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1886,10 +1892,10 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1906,10 +1912,10 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1946,10 +1952,10 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1966,10 +1972,10 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1986,10 +1992,10 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2046,10 +2052,10 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2066,10 +2072,10 @@
         <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2086,10 +2092,10 @@
         <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2106,10 +2112,10 @@
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2126,10 +2132,10 @@
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2146,10 +2152,10 @@
         <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2166,10 +2172,10 @@
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2186,10 +2192,10 @@
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2206,10 +2212,10 @@
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2226,10 +2232,10 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2246,10 +2252,10 @@
         <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2266,10 +2272,10 @@
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2286,10 +2292,10 @@
         <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2306,10 +2312,10 @@
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2326,10 +2332,10 @@
         <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2346,10 +2352,10 @@
         <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2366,10 +2372,10 @@
         <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2386,10 +2392,10 @@
         <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F55" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2406,10 +2412,10 @@
         <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2446,10 +2452,10 @@
         <v>71</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2466,10 +2472,10 @@
         <v>72</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2506,10 +2512,10 @@
         <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2526,7 +2532,7 @@
         <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
         <v>75</v>
@@ -2546,10 +2552,10 @@
         <v>76</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2566,10 +2572,10 @@
         <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2586,10 +2592,10 @@
         <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F65" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2626,10 +2632,10 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2646,10 +2652,10 @@
         <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2666,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2686,10 +2692,10 @@
         <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2766,10 +2772,10 @@
         <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2786,10 +2792,10 @@
         <v>84</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2806,10 +2812,10 @@
         <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2826,10 +2832,10 @@
         <v>86</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2846,7 +2852,7 @@
         <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F78" t="s">
         <v>87</v>
@@ -2866,10 +2872,10 @@
         <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2886,10 +2892,10 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F80" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2906,10 +2912,10 @@
         <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2926,10 +2932,10 @@
         <v>91</v>
       </c>
       <c r="E82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2946,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2966,10 +2972,10 @@
         <v>93</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3006,10 +3012,10 @@
         <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3066,10 +3072,10 @@
         <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3086,10 +3092,10 @@
         <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3106,10 +3112,10 @@
         <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3126,10 +3132,10 @@
         <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F92" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3146,10 +3152,10 @@
         <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3186,7 +3192,7 @@
         <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F95" t="s">
         <v>103</v>
@@ -3206,7 +3212,7 @@
         <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F96" t="s">
         <v>104</v>
@@ -3226,10 +3232,10 @@
         <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F97" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3246,10 +3252,10 @@
         <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F98" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3266,10 +3272,10 @@
         <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F99" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3286,10 +3292,10 @@
         <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3306,10 +3312,10 @@
         <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3326,10 +3332,10 @@
         <v>110</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3366,10 +3372,10 @@
         <v>112</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3386,10 +3392,10 @@
         <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3406,10 +3412,10 @@
         <v>113</v>
       </c>
       <c r="E106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3426,10 +3432,10 @@
         <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F107" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3446,10 +3452,10 @@
         <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3466,10 +3472,10 @@
         <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3486,10 +3492,10 @@
         <v>117</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3506,10 +3512,10 @@
         <v>118</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F111" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3546,10 +3552,10 @@
         <v>120</v>
       </c>
       <c r="E113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F113" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3566,10 +3572,10 @@
         <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F114" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3586,10 +3592,10 @@
         <v>122</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3606,7 +3612,7 @@
         <v>104</v>
       </c>
       <c r="E116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
         <v>104</v>
@@ -3666,10 +3672,10 @@
         <v>124</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3686,10 +3692,10 @@
         <v>125</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3706,10 +3712,10 @@
         <v>126</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3746,7 +3752,7 @@
         <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3763,7 +3769,7 @@
         <v>129</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3780,7 +3786,7 @@
         <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3797,7 +3803,7 @@
         <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3814,7 +3820,7 @@
         <v>132</v>
       </c>
       <c r="E127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3831,7 +3837,7 @@
         <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3848,7 +3854,7 @@
         <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3865,7 +3871,7 @@
         <v>135</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3882,7 +3888,7 @@
         <v>118</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3916,7 +3922,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3933,7 +3939,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3950,7 +3956,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3967,7 +3973,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3984,7 +3990,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4000,6 +4006,9 @@
       <c r="D138" t="s">
         <v>142</v>
       </c>
+      <c r="E138" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
@@ -4209,6 +4218,20 @@
       </c>
       <c r="D153" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>372</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="307">
   <si>
     <t>collectionNo</t>
   </si>
@@ -3754,6 +3754,9 @@
       <c r="E123" t="s">
         <v>249</v>
       </c>
+      <c r="F123" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3959,7 +3959,11 @@
           <t>珀西瓦爾</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>帕西瓦爾</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4572,6 +4576,46 @@
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>378</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ロクスタ</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>379</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>セタンタ</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -3987,7 +3987,11 @@
           <t>哈貝特洛特</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>哈貝特洛特</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4294,7 +4298,11 @@
           <t>大黒天</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>大黑天</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4015,7 +4015,11 @@
           <t>阿納斯塔西婭＆維</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>安娜塔西亞＆Viy</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4039,7 +4043,11 @@
           <t>夏洛特·科黛</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>夏洛特．科黛</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4063,7 +4071,11 @@
           <t>萊昂納多·達·芬奇</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>李奧納多．達．文西</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4087,7 +4099,11 @@
           <t>凱妮斯</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>凱妮絲</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4111,7 +4127,11 @@
           <t>清少納言</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>清少納言</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4322,7 +4342,11 @@
           <t>ローラン</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>羅蘭</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -4342,7 +4366,11 @@
           <t>クリームヒルト</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>克里姆希爾德</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -4362,7 +4390,11 @@
           <t>ドン・キホーテ</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>堂·吉訶德</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -4624,6 +4656,26 @@
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>382</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ドゥリーヨダナ</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,7 +4155,11 @@
           <t>芝諾比阿</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>潔諾比亞</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4179,7 +4183,11 @@
           <t>伊麗莎白·巴托里〔灰姑娘〕</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>伊莉莎白．巴托里〔Cinderella〕</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4203,7 +4211,11 @@
           <t>謎之蘭丸X</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>謎之蘭丸X</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4227,7 +4239,11 @@
           <t>瑪爾達〔聖誕〕</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>瑪爾大〔Santa〕</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4414,7 +4430,11 @@
           <t>ガレス</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>加雷斯</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -4434,7 +4454,11 @@
           <t>宇津見エリセ</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>宇津見繪里瀨</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -4454,7 +4478,11 @@
           <t>武則天</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>周照</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -4474,7 +4502,11 @@
           <t>スルーズ</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>斯露德</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -4494,7 +4526,11 @@
           <t>ヒルド</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>希露德</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -4514,7 +4550,11 @@
           <t>オルトリンデ</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>奧特琳德</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -4534,7 +4574,11 @@
           <t>山南敬助</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>山南敬助</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -4554,7 +4598,11 @@
           <t>壱与</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>壹與</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -4574,7 +4622,11 @@
           <t>黄飛虎</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>黃飛虎</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -4594,7 +4646,11 @@
           <t>九紋竜エリザ</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>九紋龍伊麗莎</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -4676,6 +4732,106 @@
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>387</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>鈴鹿御前〔サマバケ〕</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>388</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>クロエ・フォン・アインツベルン</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>389</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ノクナレア・ヤラアーンドゥ</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>391</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>ＵＤＫ－バーゲスト</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>392</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>ケット・クー・ミコケル</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4267,7 +4267,11 @@
           <t>多佈雷尼亞·尼基季奇</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>多布雷尼亞．尼基季奇</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4291,7 +4295,11 @@
           <t>赫費斯提翁</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>赫費斯提翁</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4832,6 +4840,66 @@
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>398</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>永倉新八</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>399</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>雑賀孫一</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>401</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>ネモ〔サンタ〕</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_servents.xlsx
+++ b/4_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4323,7 +4323,11 @@
           <t>太歲星君</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>太歲星君</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4347,7 +4351,11 @@
           <t>大黑天</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>大黑天</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4678,7 +4686,11 @@
           <t>テノチティトラン</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>特諾奇蒂特蘭</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -4900,6 +4912,46 @@
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>404</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>由井正雪</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>405</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>宮本伊織</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
